--- a/app/static/csv/register.xlsx
+++ b/app/static/csv/register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E76D975-1580-4E9E-B6E6-66F14D084E70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB152EE-17B0-45A8-B43C-54E501835F13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6945" yWindow="1740" windowWidth="14400" windowHeight="7590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>I am at least 16 years old</t>
   </si>
   <si>
-    <t>Ik ben ten minste 16 jaar oud</t>
-  </si>
-  <si>
     <t>have_smartphone</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>participant_info</t>
   </si>
   <si>
-    <t xml:space="preserve"> participant information</t>
-  </si>
-  <si>
     <t>button1</t>
   </si>
   <si>
@@ -424,21 +418,9 @@
     <t>checkbox_collection</t>
   </si>
   <si>
-    <t>It is possible for me to come to Leiden University to collect payment</t>
-  </si>
-  <si>
-    <t>Het is voor mij mogelijk om naar Universiteit Leiden te komen om de monetaire compensatie op te halen</t>
-  </si>
-  <si>
     <t>invalid_feedback_collection</t>
   </si>
   <si>
-    <t>Please note you are only able to participate for money if you are able to come collect it</t>
-  </si>
-  <si>
-    <t>Houd er alstublieft rekening mee dat u alleen monetaire compensatie kan verzoeken indien u in de mogelijkheid bent het te komen ophalen</t>
-  </si>
-  <si>
     <t>button2</t>
   </si>
   <si>
@@ -478,19 +460,37 @@
     <t>Ik ga akkoord met deelname aan deze studie voor 3 jaar</t>
   </si>
   <si>
-    <t>Open consent document</t>
-  </si>
-  <si>
-    <t>Open toestemmingsdocument</t>
-  </si>
-  <si>
-    <t>Ik ben niet gediagnosticeerd met een neurologisch of mentaal gezondheidsprobleem op dit moment</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ik heb de </t>
   </si>
   <si>
     <t>Deelnemers informatie gelezen</t>
+  </si>
+  <si>
+    <t>I live in the Netherlands and I am willing to provide my IBAN, name and address to receive my payment</t>
+  </si>
+  <si>
+    <t>You must live in The Netherlands and provide us with your bank details to receive compensation</t>
+  </si>
+  <si>
+    <t>Ik ben momenteel niet gediagnosticeerd met een neurologische of psychologische aandoening</t>
+  </si>
+  <si>
+    <t>Ik woon in Nederland en ben bereid om mijn IBAN, naam en adres op te geven om mijn betaling te kunnen ontvangen</t>
+  </si>
+  <si>
+    <t>Je moet in Nederland wonen en je bankgegevens met ons delen om betaald te kunnen worden</t>
+  </si>
+  <si>
+    <t>Ik ben 16 jaar of ouder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> participant information </t>
+  </si>
+  <si>
+    <t>Lees meer hieronder, of open toestemmingsdocument</t>
+  </si>
+  <si>
+    <t>Read more below or open consent document</t>
   </si>
 </sst>
 </file>
@@ -1336,12 +1336,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="222.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1375,637 +1376,866 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
         <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
         <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
         <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
         <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
         <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
         <v>63</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
         <v>66</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
         <v>69</v>
-      </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
         <v>72</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
         <v>75</v>
-      </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
         <v>78</v>
-      </c>
-      <c r="B31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
         <v>83</v>
-      </c>
-      <c r="B33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
         <v>86</v>
-      </c>
-      <c r="B34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
         <v>89</v>
-      </c>
-      <c r="B35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" t="s">
         <v>92</v>
-      </c>
-      <c r="B36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
         <v>97</v>
-      </c>
-      <c r="B38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
         <v>104</v>
-      </c>
-      <c r="B41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
         <v>107</v>
-      </c>
-      <c r="B42" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" t="s">
         <v>110</v>
-      </c>
-      <c r="B43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" t="s">
         <v>115</v>
-      </c>
-      <c r="B46" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" t="s">
         <v>118</v>
-      </c>
-      <c r="B47" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" t="s">
         <v>124</v>
-      </c>
-      <c r="B51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s">
         <v>127</v>
-      </c>
-      <c r="B52" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
         <v>130</v>
-      </c>
-      <c r="B53" t="s">
-        <v>131</v>
-      </c>
-      <c r="C53" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" t="s">
         <v>145</v>
-      </c>
-      <c r="B58" t="s">
-        <v>150</v>
-      </c>
-      <c r="C58" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D896C3867AA3F4EB0C0DE718E7AD517" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80024e68534539ed8e026f0b5c1f9e6f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c478e2cf-1bd2-4bab-9bac-f508c15c8b21" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dc892a718835b0a8dea2591f8ec0eaf" ns3:_="">
+    <xsd:import namespace="c478e2cf-1bd2-4bab-9bac-f508c15c8b21"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c478e2cf-1bd2-4bab-9bac-f508c15c8b21" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3CCF75A-7D36-4891-89F1-A9732AC92815}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBFD3207-4EF5-4708-9C20-4BA30DCDFC67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c478e2cf-1bd2-4bab-9bac-f508c15c8b21"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CD5E69-85B0-4DA7-BF73-BF11A37D9D12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/app/static/csv/register.xlsx
+++ b/app/static/csv/register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB152EE-17B0-45A8-B43C-54E501835F13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86976FD-9F19-4FA8-B3D4-AB49C3B5A29A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6945" yWindow="1740" windowWidth="14400" windowHeight="7590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -49,12 +49,6 @@
     <t>have_smartphone</t>
   </si>
   <si>
-    <t>I have a smartphone running Android</t>
-  </si>
-  <si>
-    <t>Ik heb een smartphone met Android</t>
-  </si>
-  <si>
     <t>app_installed</t>
   </si>
   <si>
@@ -412,9 +406,6 @@
     <t>I request to participate for monetary compensation</t>
   </si>
   <si>
-    <t>Ik verzoek te participeren voor monetaire compensatie</t>
-  </si>
-  <si>
     <t>checkbox_collection</t>
   </si>
   <si>
@@ -491,6 +482,15 @@
   </si>
   <si>
     <t>Read more below or open consent document</t>
+  </si>
+  <si>
+    <t>Ik wil voor mijn deelname betaald worden</t>
+  </si>
+  <si>
+    <t>I have a smartphone running Android (not an Iphone)</t>
+  </si>
+  <si>
+    <t>Ik heb een smartphone met Android (geen Iphone)</t>
   </si>
 </sst>
 </file>
@@ -1336,17 +1336,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="222.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="222.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1376,634 +1376,634 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>122</v>
-      </c>
-      <c r="B51" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>125</v>
-      </c>
-      <c r="B52" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" t="s">
-        <v>129</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B56" t="s">
         <v>131</v>
       </c>
-      <c r="B54" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C56" t="s">
         <v>132</v>
       </c>
-      <c r="B55" t="s">
-        <v>149</v>
-      </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>133</v>
-      </c>
-      <c r="B56" t="s">
-        <v>134</v>
-      </c>
-      <c r="C56" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>136</v>
-      </c>
-      <c r="B57" t="s">
-        <v>137</v>
-      </c>
-      <c r="C57" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B60" t="s">
         <v>139</v>
       </c>
-      <c r="B58" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C60" t="s">
         <v>140</v>
-      </c>
-      <c r="B59" t="s">
-        <v>156</v>
-      </c>
-      <c r="C59" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>141</v>
-      </c>
-      <c r="B60" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2013,6 +2013,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2021,7 +2027,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D896C3867AA3F4EB0C0DE718E7AD517" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80024e68534539ed8e026f0b5c1f9e6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c478e2cf-1bd2-4bab-9bac-f508c15c8b21" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dc892a718835b0a8dea2591f8ec0eaf" ns3:_="">
     <xsd:import namespace="c478e2cf-1bd2-4bab-9bac-f508c15c8b21"/>
@@ -2199,13 +2205,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CD5E69-85B0-4DA7-BF73-BF11A37D9D12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3CCF75A-7D36-4891-89F1-A9732AC92815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2213,7 +2222,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBFD3207-4EF5-4708-9C20-4BA30DCDFC67}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2229,13 +2238,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CD5E69-85B0-4DA7-BF73-BF11A37D9D12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/app/static/csv/register.xlsx
+++ b/app/static/csv/register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86976FD-9F19-4FA8-B3D4-AB49C3B5A29A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA6A583-D371-422D-852C-01A813938762}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,12 +52,6 @@
     <t>app_installed</t>
   </si>
   <si>
-    <t>I have the TapCounter app installed on my smartphone</t>
-  </si>
-  <si>
-    <t>Ik heb de TapCounter app geïnstalleerd op mijn smartphone</t>
-  </si>
-  <si>
     <t>mental_health</t>
   </si>
   <si>
@@ -76,12 +70,6 @@
     <t>button1</t>
   </si>
   <si>
-    <t>Read more about how to install the TapCounter app</t>
-  </si>
-  <si>
-    <t>Lees meer over het installeren van de TapCounter app</t>
-  </si>
-  <si>
     <t>label_email</t>
   </si>
   <si>
@@ -487,10 +475,22 @@
     <t>Ik wil voor mijn deelname betaald worden</t>
   </si>
   <si>
-    <t>I have a smartphone running Android (not an Iphone)</t>
-  </si>
-  <si>
-    <t>Ik heb een smartphone met Android (geen Iphone)</t>
+    <t>Ik heb de 'QuantActions TapCounter' app geïnstalleerd op mijn smartphone</t>
+  </si>
+  <si>
+    <t>Lees meer over het installeren van de 'QuantActions TapCounter' app</t>
+  </si>
+  <si>
+    <t>Read more about how to install the 'QuantActions TapCounter' app</t>
+  </si>
+  <si>
+    <t>I have the 'QuantActions TapCounter' app installed on my smartphone</t>
+  </si>
+  <si>
+    <t>I have a smartphone running Android (not an iPhone)</t>
+  </si>
+  <si>
+    <t>Ik heb een smartphone met Android (geen iPhone)</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1344,6 +1344,7 @@
   <cols>
     <col min="1" max="1" width="29.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="222.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1376,7 +1377,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1395,615 +1396,615 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/app/static/csv/register.xlsx
+++ b/app/static/csv/register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA6A583-D371-422D-852C-01A813938762}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688290F5-F1DF-4414-8C5F-CCCB9DD1756E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="160">
   <si>
     <t>tag</t>
   </si>
@@ -491,6 +491,15 @@
   </si>
   <si>
     <t>Ik heb een smartphone met Android (geen iPhone)</t>
+  </si>
+  <si>
+    <t>info_icon</t>
+  </si>
+  <si>
+    <t>Once registered please check your email (inbox and spam folders) to activate the App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zodra u geregistreerd bent: controleer uw e-mail (inbox en eventueel de spam folder) om de App te kunnen activeren. </t>
   </si>
 </sst>
 </file>
@@ -1334,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C42" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2007,6 +2016,17 @@
         <v>136</v>
       </c>
     </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2014,18 +2034,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2207,18 +2227,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CD5E69-85B0-4DA7-BF73-BF11A37D9D12}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3CCF75A-7D36-4891-89F1-A9732AC92815}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3CCF75A-7D36-4891-89F1-A9732AC92815}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CD5E69-85B0-4DA7-BF73-BF11A37D9D12}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/app/static/csv/register.xlsx
+++ b/app/static/csv/register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688290F5-F1DF-4414-8C5F-CCCB9DD1756E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EACF5EE-2002-48C9-BBB2-2E9D3DCB1687}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="register" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="172">
   <si>
     <t>tag</t>
   </si>
@@ -500,6 +501,42 @@
   </si>
   <si>
     <t xml:space="preserve">Zodra u geregistreerd bent: controleer uw e-mail (inbox en eventueel de spam folder) om de App te kunnen activeren. </t>
+  </si>
+  <si>
+    <t>placeholder_promo_code</t>
+  </si>
+  <si>
+    <t>promocode (optional)</t>
+  </si>
+  <si>
+    <t>promocode (optioneel)</t>
+  </si>
+  <si>
+    <t>label_promo_code</t>
+  </si>
+  <si>
+    <t>Has this study been recommended to you by a friend? Fill in their promocode here (optional)</t>
+  </si>
+  <si>
+    <t>invalid_feedback_promo_code</t>
+  </si>
+  <si>
+    <t>This code does not exist</t>
+  </si>
+  <si>
+    <t>Deze code bestaat niet</t>
+  </si>
+  <si>
+    <t>valid_feedback_promo_code</t>
+  </si>
+  <si>
+    <t>Deze code wordt gebruikt om degene die u heeft doorverwezen te belonen. Door de beloning zou hij/zij kunnen zien of u wel of niet de volledige periode deelneemt aan het onderzoek. Verder zullen er geen data van u worden gedeeld met degene die u heeft verwezen.</t>
+  </si>
+  <si>
+    <t>The promotion code is used for rewarding your acquaintance and thus he/she may know if you successfully participated or not. No other user data is shared with the acquaintance who gave you this code.</t>
+  </si>
+  <si>
+    <t>Bent u doorverwezen naar dit onderzoek door een vriend? Vul hier hun promocode in (optioneel)</t>
   </si>
 </sst>
 </file>
@@ -1343,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C42" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="C53" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2027,6 +2064,50 @@
         <v>159</v>
       </c>
     </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2034,18 +2115,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2227,18 +2308,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3CCF75A-7D36-4891-89F1-A9732AC92815}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CD5E69-85B0-4DA7-BF73-BF11A37D9D12}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CD5E69-85B0-4DA7-BF73-BF11A37D9D12}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3CCF75A-7D36-4891-89F1-A9732AC92815}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/app/static/csv/register.xlsx
+++ b/app/static/csv/register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EACF5EE-2002-48C9-BBB2-2E9D3DCB1687}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5D6023-DB32-40AF-B648-BE489C09E4EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="register" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -515,9 +514,6 @@
     <t>label_promo_code</t>
   </si>
   <si>
-    <t>Has this study been recommended to you by a friend? Fill in their promocode here (optional)</t>
-  </si>
-  <si>
     <t>invalid_feedback_promo_code</t>
   </si>
   <si>
@@ -530,13 +526,16 @@
     <t>valid_feedback_promo_code</t>
   </si>
   <si>
-    <t>Deze code wordt gebruikt om degene die u heeft doorverwezen te belonen. Door de beloning zou hij/zij kunnen zien of u wel of niet de volledige periode deelneemt aan het onderzoek. Verder zullen er geen data van u worden gedeeld met degene die u heeft verwezen.</t>
-  </si>
-  <si>
     <t>The promotion code is used for rewarding your acquaintance and thus he/she may know if you successfully participated or not. No other user data is shared with the acquaintance who gave you this code.</t>
   </si>
   <si>
-    <t>Bent u doorverwezen naar dit onderzoek door een vriend? Vul hier hun promocode in (optioneel)</t>
+    <t xml:space="preserve">Did a friend give you a promocode? (OPTIONAL) </t>
+  </si>
+  <si>
+    <t>Heeft een vriend u een promocode gegeven? (OPTIONEEL)</t>
+  </si>
+  <si>
+    <t>Deze code wordt gebruikt om degene die u heeft doorverwezen te belonen. Door de beloning zou hij/zij kunnen zien of u wel of niet succesvol heeft deelgenomen aan dit onderzoek.</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1382,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C53" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2080,32 +2079,32 @@
         <v>163</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" t="s">
         <v>165</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>166</v>
-      </c>
-      <c r="C64" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" t="s">
         <v>168</v>
       </c>
-      <c r="B65" t="s">
-        <v>170</v>
-      </c>
       <c r="C65" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/app/static/csv/register.xlsx
+++ b/app/static/csv/register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\rushkock\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5D6023-DB32-40AF-B648-BE489C09E4EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7BB59E-76AC-4440-B4F8-0EAACCFC26CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="183">
   <si>
     <t>tag</t>
   </si>
@@ -536,6 +536,39 @@
   </si>
   <si>
     <t>Deze code wordt gebruikt om degene die u heeft doorverwezen te belonen. Door de beloning zou hij/zij kunnen zien of u wel of niet succesvol heeft deelgenomen aan dit onderzoek.</t>
+  </si>
+  <si>
+    <t>phone_type</t>
+  </si>
+  <si>
+    <t>Smartphone type</t>
+  </si>
+  <si>
+    <t>Smartphonetype</t>
+  </si>
+  <si>
+    <t>phone_option_1</t>
+  </si>
+  <si>
+    <t>Android (Samsung, Google, Oppo, Xiaomi, or other)</t>
+  </si>
+  <si>
+    <t>phone_option_2</t>
+  </si>
+  <si>
+    <t>phone_option_3</t>
+  </si>
+  <si>
+    <t>I do not know</t>
+  </si>
+  <si>
+    <t>Ik weet het niet</t>
+  </si>
+  <si>
+    <t>Android (Samsung, Google, Oppo, Xiaomi, Huawei, of andere)</t>
+  </si>
+  <si>
+    <t>IOS (Apple iPhone)</t>
   </si>
 </sst>
 </file>
@@ -1379,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C53" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2107,6 +2140,50 @@
         <v>171</v>
       </c>
     </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" t="s">
+        <v>179</v>
+      </c>
+      <c r="C69" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2114,18 +2191,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2307,18 +2384,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CD5E69-85B0-4DA7-BF73-BF11A37D9D12}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3CCF75A-7D36-4891-89F1-A9732AC92815}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3CCF75A-7D36-4891-89F1-A9732AC92815}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CD5E69-85B0-4DA7-BF73-BF11A37D9D12}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
